--- a/02.Study Material/Analysis of Algorithms/Study Material_Video Link_Algorithms.xlsx
+++ b/02.Study Material/Analysis of Algorithms/Study Material_Video Link_Algorithms.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD32E0-C821-468C-89B4-224196039668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>Sr No.</t>
   </si>
@@ -151,12 +152,243 @@
   </si>
   <si>
     <t>Knapsack Problem With Example</t>
+  </si>
+  <si>
+    <t>Searching, Sorting, Hashing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=UTHNg2oan3Q</t>
+  </si>
+  <si>
+    <t>GradeUp</t>
+  </si>
+  <si>
+    <t>All common searching algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C46QfTjVCNU</t>
+  </si>
+  <si>
+    <t>Jenny's Lecture</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=qBGLYzFF1aQ</t>
+  </si>
+  <si>
+    <t>Linear vs Binary Search</t>
+  </si>
+  <si>
+    <t>GeekforGeeeks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=5&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=xWBP4lzkoyM</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=7&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=nmhjrI-aW5o</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=3&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=OGzPmgsI-pQ</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=1&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=MtQL_ll5KhQ</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=8&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=nu4gDuFabIM</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?index=6&amp;edufilter=NULL&amp;list=PLqM7alHXFySHrGIxeBOo4-mKO4H8j2knW&amp;v=7zuGmKfUt7s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=F14AZbsVn3Q</t>
+  </si>
+  <si>
+    <t>Hashing Part 1</t>
+  </si>
+  <si>
+    <t>Hashing Part 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=ga31Y7s3oyo</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=shs0KM3wKv8</t>
+  </si>
+  <si>
+    <t>HackerRank</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=sXABdGalFNg</t>
+  </si>
+  <si>
+    <t>Asymptotic worst case time and space complexity</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=ARvQcqJ_-NY</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=poWB2UCuozA</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Design Techniques - Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=0kNXhFIEd_w</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=EjVHtpWkIho</t>
+  </si>
+  <si>
+    <t>Kruskals Algorithm for Minimum Spanning Tree- Greedy method</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=ZtZaR7EcI5Y</t>
+  </si>
+  <si>
+    <t>Prim's Algorithm for Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=smHnz2RHJBY</t>
+  </si>
+  <si>
+    <t> Dijkstra Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=mmjDZGSr7EA</t>
+  </si>
+  <si>
+    <t>Overlapping Subproblems Property</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=5dRGRueKU3M</t>
+  </si>
+  <si>
+    <t>Principle of Optimality - Dynamic Programming</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=sSno9rV8Rhg</t>
+  </si>
+  <si>
+    <t> Longest Common Subsequence (LCS)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=prx1psByp7U</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=8LusJS5-AGo</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Tushar Roy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=t1shZ8_s6jc</t>
+  </si>
+  <si>
+    <t>Min Cost Path</t>
+  </si>
+  <si>
+    <t>Tech Dose</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=s6FhG--P7z0</t>
+  </si>
+  <si>
+    <t>Subset Sum  Problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=FtN3BYH2Zes</t>
+  </si>
+  <si>
+    <t>Bellman Ford Problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=oNI0rf2P9gE</t>
+  </si>
+  <si>
+    <t>Floyd Warshall Problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=XaXsJJh-Q5Y</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=pcKY4hjDrxk</t>
+  </si>
+  <si>
+    <t>DFS BFS</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=Q9PIxaNGnig</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?edufilter=NULL&amp;v=TXkDpqjDMHA</t>
+  </si>
+  <si>
+    <t>Shortest/Longest path on a Directed Acyclic Graph (DAG) </t>
+  </si>
+  <si>
+    <t>WilliamFiest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,6 +450,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -265,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,16 +777,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="98.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,6 +809,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -550,6 +823,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -561,6 +837,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -572,6 +851,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -583,6 +865,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
@@ -594,6 +879,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -605,6 +893,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -616,6 +907,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -627,6 +921,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
@@ -638,6 +935,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -649,6 +949,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -660,6 +963,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -671,6 +977,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -682,6 +991,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -693,6 +1005,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
@@ -703,7 +1018,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -714,7 +1032,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -725,12 +1046,463 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -752,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
